--- a/biology/Zoologie/Anolis_pogus/Anolis_pogus.xlsx
+++ b/biology/Zoologie/Anolis_pogus/Anolis_pogus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis pogus est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis pogus est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Saint-Martin dans les Petites Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Saint-Martin dans les Petites Antilles.
 Sa présence à Saint-Barthélemy et à Anguilla est incertaine.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure, queue non comprise, jusqu'à 50 mm pour les mâles et jusqu'à 42 mm pour les femelles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure, queue non comprise, jusqu'à 50 mm pour les mâles et jusqu'à 42 mm pour les femelles.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite à l'origine comme une sous-espèce d'Anolis wattsi, elle a été élevée au rang d'espèce par Burnell et Hedges en 1990[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite à l'origine comme une sous-espèce d'Anolis wattsi, elle a été élevée au rang d'espèce par Burnell et Hedges en 1990.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lazell, 1972 : The anoles (Sauria: Iguanidae) of the lesser Antilles. Bulletin of The Museum of Comparative Zoology, vol. 143, no 1, p. 1-115 (texte intégral).</t>
         </is>
